--- a/Completed Projects/Bitcoin Miner Data Collector/Data - Graphics Cards.xlsx
+++ b/Completed Projects/Bitcoin Miner Data Collector/Data - Graphics Cards.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,31 +492,31 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>0.2</v>
+        <v>1.51</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>1.56</v>
+        <v>10.19</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>8.07</v>
+        <v>34.35</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1.48</v>
+        <v>1.06</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>10.35</v>
+        <v>7.43</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>44.35</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>-1.28</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>-8.789999999999999</v>
+        <v>31.79</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>2.77</v>
       </c>
       <c r="J2" t="n">
-        <v>-36.28</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +526,31 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.25</v>
+        <v>0.71</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>11.76</v>
+        <v>10.92</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>50.4</v>
+        <v>46.75</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-1.67</v>
+        <v>-1.54</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>-11.72</v>
+        <v>-10.74</v>
       </c>
       <c r="J3" t="n">
-        <v>-50.15</v>
+        <v>-46.04</v>
       </c>
     </row>
     <row r="4">
@@ -560,31 +560,31 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1.99</v>
+        <v>4.26</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>12.95</v>
+        <v>29.06</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>59.65</v>
+        <v>95.84999999999999</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>14.11</v>
+        <v>13.1</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>60.48</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>-1.17</v>
+        <v>56.1</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>15.96</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.83</v>
+        <v>39.75</v>
       </c>
     </row>
     <row r="5">
@@ -594,201 +594,201 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>0.02</v>
+        <v>2.68</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.11</v>
+        <v>18.16</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.63</v>
+        <v>61.32</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>1.48</v>
+        <v>1.19</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>10.35</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>44.35</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>-1.46</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>-10.24</v>
+        <v>35.53</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>9.859999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>-43.72</v>
+        <v>25.79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AMD Radeon VII</t>
+          <t>AMD RX 460 4GB</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>6.16</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>40.07</v>
+        <v>4.68</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>184.63</v>
+        <v>15.76</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>1.48</v>
+        <v>0.5</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>10.35</v>
+        <v>3.49</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>44.35</v>
+        <v>14.96</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>4.69</v>
+        <v>0.19</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>29.72</v>
+        <v>1.18</v>
       </c>
       <c r="J6" t="n">
-        <v>140.27</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AMD RX 460 4GB</t>
+          <t>AMD RX 470 4GB</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>0.31</v>
+        <v>2.06</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>2.25</v>
+        <v>14.12</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>12.23</v>
+        <v>48.66</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.54</v>
+        <v>0.75</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>3.76</v>
+        <v>5.24</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>-0.22</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>-1.52</v>
+        <v>22.44</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>8.880000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>-3.9</v>
+        <v>26.22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AMD RX 470 4GB</t>
+          <t>AMD RX 470 8GB</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>0.91</v>
+        <v>4.67</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>6.53</v>
+        <v>30.43</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>36.09</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>5.64</v>
+        <v>5.24</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>24.19</v>
+        <v>22.44</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>0.1</v>
+        <v>3.92</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>0.88</v>
+        <v>25.19</v>
       </c>
       <c r="J8" t="n">
-        <v>11.9</v>
+        <v>77.38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AMD RX 470 8GB</t>
+          <t>AMD RX 480 8GB</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>2.07</v>
+        <v>4.43</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>13.45</v>
+        <v>30.1</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>61.99</v>
+        <v>99.23</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>5.64</v>
+        <v>5.68</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>24.19</v>
+        <v>24.31</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>1.26</v>
+        <v>3.61</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>7.81</v>
+        <v>24.42</v>
       </c>
       <c r="J9" t="n">
-        <v>37.8</v>
+        <v>74.92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AMD RX 480 8GB</t>
+          <t>AMD RX 550 4GB</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>2.06</v>
+        <v>1.51</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>13.4</v>
+        <v>10.19</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>61.75</v>
+        <v>34.34</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.87</v>
+        <v>0.44</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>6.12</v>
+        <v>3.06</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>26.21</v>
+        <v>13.09</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>7.29</v>
+        <v>7.13</v>
       </c>
       <c r="J10" t="n">
-        <v>35.54</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="11">
@@ -798,31 +798,31 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>0.62</v>
+        <v>1.83</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>4.41</v>
+        <v>12.44</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>24.05</v>
+        <v>41.96</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>3.29</v>
+        <v>3.05</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>14.11</v>
+        <v>13.09</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>0.15</v>
+        <v>1.4</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>1.11</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>9.94</v>
+        <v>28.87</v>
       </c>
     </row>
     <row r="12">
@@ -832,371 +832,371 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>1.77</v>
+        <v>3.99</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>11.5</v>
+        <v>26.03</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>53.02</v>
+        <v>85.37</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>3.29</v>
+        <v>3.06</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>14.11</v>
+        <v>13.09</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>1.3</v>
+        <v>3.55</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>8.210000000000001</v>
+        <v>22.97</v>
       </c>
       <c r="J12" t="n">
-        <v>38.91</v>
+        <v>72.28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AMD RX 550 4GB</t>
+          <t>AMD RX 5600 XT 6GB</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>0.21</v>
+        <v>5.68</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>1.51</v>
+        <v>37.04</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>8.359999999999999</v>
+        <v>121.49</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0.47</v>
+        <v>0.62</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>3.29</v>
+        <v>4.37</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>14.11</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>-0.27</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>-1.79</v>
+        <v>18.7</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>32.67</v>
       </c>
       <c r="J13" t="n">
-        <v>-5.75</v>
+        <v>102.79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AMD RX 5600 XT 6GB</t>
+          <t>AMD RX 570 16GB</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>2.52</v>
+        <v>4.41</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>16.37</v>
+        <v>30.01</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>75.43000000000001</v>
+        <v>98.94</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0.67</v>
+        <v>0.87</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>4.7</v>
+        <v>6.12</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>20.16</v>
+        <v>26.18</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>1.85</v>
+        <v>3.54</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>11.67</v>
+        <v>23.89</v>
       </c>
       <c r="J14" t="n">
-        <v>55.27</v>
+        <v>72.76000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AMD RX 5700 8GB</t>
+          <t>AMD RX 570 4GB</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>3.65</v>
+        <v>1.45</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>23.7</v>
+        <v>9.84</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>109.2</v>
+        <v>33.19</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>1.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>7.53</v>
+        <v>5.68</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>32.26</v>
+        <v>24.31</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>2.57</v>
+        <v>0.64</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>16.17</v>
+        <v>4.16</v>
       </c>
       <c r="J15" t="n">
-        <v>76.95</v>
+        <v>8.880000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AMD RX 5700 XT 8GB</t>
+          <t>AMD RX 570 8GB</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3.73</v>
+        <v>4.44</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>24.23</v>
+        <v>30.29</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>111.65</v>
+        <v>99.91</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>1.01</v>
+        <v>0.8</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>7.06</v>
+        <v>5.67</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>30.33</v>
+        <v>24.3</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>2.72</v>
+        <v>3.64</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>17.17</v>
+        <v>24.62</v>
       </c>
       <c r="J16" t="n">
-        <v>81.31999999999999</v>
+        <v>75.61</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AMD RX 570 16GB</t>
+          <t>AMD RX 5700 8GB</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>2.06</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>13.36</v>
+        <v>53.62</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>61.59</v>
+        <v>175.87</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>6.59</v>
+        <v>6.99</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>28.22</v>
+        <v>29.92</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>1.11</v>
+        <v>7.22</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>6.78</v>
+        <v>46.63</v>
       </c>
       <c r="J17" t="n">
-        <v>33.36</v>
+        <v>145.95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AMD RX 570 4GB</t>
+          <t>AMD RX 5700 XT 8GB</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>0.66</v>
+        <v>7.98</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>4.73</v>
+        <v>54.39</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>25.76</v>
+        <v>179.38</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>6.12</v>
+        <v>6.11</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>26.21</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>-0.21</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>-1.38</v>
+        <v>26.17</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>48.29</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.45</v>
+        <v>153.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AMD RX 570 8GB</t>
+          <t>AMD RX 580 4GB</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>2.08</v>
+        <v>1.72</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>13.49</v>
+        <v>11.71</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>62.18</v>
+        <v>39.48</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>6.12</v>
+        <v>5.68</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>26.21</v>
+        <v>24.31</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>1.2</v>
+        <v>0.91</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>7.38</v>
+        <v>6.03</v>
       </c>
       <c r="J19" t="n">
-        <v>35.97</v>
+        <v>15.17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AMD RX 580 4GB</t>
+          <t>AMD RX 580 8GB</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>0.79</v>
+        <v>4.8</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>5.63</v>
+        <v>31.33</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>30.65</v>
+        <v>102.74</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>6.12</v>
+        <v>5.68</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>26.21</v>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>-0.09</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>-0.49</v>
+        <v>24.31</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>25.65</v>
       </c>
       <c r="J20" t="n">
-        <v>4.45</v>
+        <v>78.43000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AMD RX 580 8GB</t>
+          <t>AMD RX 590 8GB</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>2.13</v>
+        <v>4.73</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>13.84</v>
+        <v>30.87</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>63.81</v>
+        <v>101.23</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>6.12</v>
+        <v>5.68</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>26.21</v>
+        <v>24.31</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>1.26</v>
+        <v>3.92</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>7.73</v>
+        <v>25.19</v>
       </c>
       <c r="J21" t="n">
-        <v>37.6</v>
+        <v>76.92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AMD RX 590 8GB</t>
+          <t>AMD RX 6700 XT 12GB</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>2.1</v>
+        <v>7.22</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>13.64</v>
+        <v>47.05</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>62.86</v>
+        <v>154.33</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>0.87</v>
+        <v>1.06</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>6.12</v>
+        <v>7.43</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>26.21</v>
+        <v>31.79</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>1.22</v>
+        <v>6.15</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>7.53</v>
+        <v>39.63</v>
       </c>
       <c r="J22" t="n">
-        <v>36.66</v>
+        <v>122.54</v>
       </c>
     </row>
     <row r="23">
@@ -1206,31 +1206,31 @@
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>4.31</v>
+        <v>9.23</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>28.05</v>
+        <v>62.97</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>129.29</v>
+        <v>207.68</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>8.23</v>
+        <v>7.63</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>35.28</v>
+        <v>32.71</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>3.14</v>
+        <v>8.15</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>19.82</v>
+        <v>55.34</v>
       </c>
       <c r="J23" t="n">
-        <v>94.01000000000001</v>
+        <v>174.96</v>
       </c>
     </row>
     <row r="24">
@@ -1240,31 +1240,31 @@
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>4.38</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>28.49</v>
+        <v>64.47</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>131.3</v>
+        <v>211.46</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>8.94</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>38.3</v>
+        <v>35.53</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>3.11</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>19.56</v>
+        <v>56.17</v>
       </c>
       <c r="J24" t="n">
-        <v>93</v>
+        <v>175.93</v>
       </c>
     </row>
     <row r="25">
@@ -1274,31 +1274,31 @@
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>6.02</v>
+        <v>9.82</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>39.16</v>
+        <v>64.06999999999999</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>180.43</v>
+        <v>210.15</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>10.35</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>44.35</v>
+        <v>41.14</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>4.54</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>28.81</v>
+        <v>54.46</v>
       </c>
       <c r="J25" t="n">
-        <v>136.07</v>
+        <v>169.01</v>
       </c>
     </row>
     <row r="26">
@@ -1308,31 +1308,31 @@
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>2.59</v>
+        <v>5.93</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>17.06</v>
+        <v>38.64</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>78.72</v>
+        <v>126.75</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>10.1</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>43.35</v>
+        <v>40.21</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>1.16</v>
+        <v>4.58</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>6.96</v>
+        <v>29.25</v>
       </c>
       <c r="J26" t="n">
-        <v>35.38</v>
+        <v>86.54000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -1342,1221 +1342,1561 @@
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>3.16</v>
+        <v>7.22</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>20.77</v>
+        <v>47.05</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>95.8</v>
+        <v>154.33</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>10.33</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>44.34</v>
+        <v>41.14</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>1.7</v>
+        <v>5.84</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>10.43</v>
+        <v>37.44</v>
       </c>
       <c r="J27" t="n">
-        <v>51.46</v>
+        <v>113.19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AMD Vega Frontier Edition</t>
+          <t>AMD Radeon VII</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>2.59</v>
+        <v>13.9</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>17.05</v>
+        <v>90.66</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>78.67</v>
+        <v>297.36</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>1.99</v>
+        <v>1.37</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>14.09</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>60.46</v>
+        <v>41.14</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>0.6</v>
+        <v>12.53</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>2.96</v>
+        <v>81.05</v>
       </c>
       <c r="J28" t="n">
-        <v>18.21</v>
+        <v>256.22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NVIDIA GTX 1050</t>
+          <t>AMD Vega Frontier Edition</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>0.39</v>
+        <v>5.92</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>2.78</v>
+        <v>38.63</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>15.15</v>
+        <v>126.71</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>0.44</v>
+        <v>1.87</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>3.06</v>
+        <v>13.1</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>-0.28</v>
+        <v>56.1</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>25.53</v>
       </c>
       <c r="J29" t="n">
-        <v>2.04</v>
+        <v>70.61</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>NVIDIA GTX 1050 Ti</t>
+          <t>NVIDIA A40</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>0.4</v>
+        <v>13.45</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>2.84</v>
+        <v>83.63</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>15.65</v>
+        <v>273.29</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>0.47</v>
+        <v>1.19</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>3.29</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>14.11</v>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>-0.45</v>
+        <v>35.53</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>75.33</v>
       </c>
       <c r="J30" t="n">
-        <v>1.54</v>
+        <v>237.76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>NVIDIA GTX 1060 3GB</t>
+          <t>NVIDIA CMP 30HX</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>0.48</v>
+        <v>4.44</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>3.73</v>
+        <v>27.7</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>20.15</v>
+        <v>90.54000000000001</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>0.59</v>
+        <v>0.53</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>4.15</v>
+        <v>3.71</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>17.34</v>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>-0.42</v>
+        <v>15.9</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>23.98</v>
       </c>
       <c r="J31" t="n">
-        <v>2.81</v>
+        <v>74.64</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>NVIDIA GTX 1060 6GB</t>
+          <t>NVIDIA CMP 40HX</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>1.63</v>
+        <v>5.82</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>10.62</v>
+        <v>36.26</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>49.02</v>
+        <v>118.52</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>4.23</v>
+        <v>5.02</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>18.14</v>
+        <v>21.51</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>1.02</v>
+        <v>5.1</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>6.38</v>
+        <v>31.23</v>
       </c>
       <c r="J32" t="n">
-        <v>30.88</v>
+        <v>97.02</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>NVIDIA GTX 1070</t>
+          <t>NVIDIA CMP 50HX</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>2.04</v>
+        <v>7.27</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>13.36</v>
+        <v>45.32</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>62.05</v>
+        <v>148.15</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.31</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>5.65</v>
+        <v>9.17</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>24.22</v>
+        <v>39.27</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>1.23</v>
+        <v>5.96</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>7.71</v>
+        <v>36.15</v>
       </c>
       <c r="J33" t="n">
-        <v>37.83</v>
+        <v>108.88</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NVIDIA GTX 1070 Ti</t>
+          <t>NVIDIA GTX 1050</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>2.16</v>
+        <v>0.85</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>14.14</v>
+        <v>5.84</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>65.59999999999999</v>
+        <v>20.41</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>0.97</v>
+        <v>0.41</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>6.82</v>
+        <v>2.84</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>29.08</v>
+        <v>12.16</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>1.18</v>
+        <v>0.44</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>7.32</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>36.51</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>NVIDIA GTX 1080</t>
+          <t>NVIDIA GTX 1050 Ti</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>2.47</v>
+        <v>0.88</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>16.11</v>
+        <v>6.09</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>74.45</v>
+        <v>22</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>0.91</v>
+        <v>0.43</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>6.35</v>
+        <v>2.98</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>27.21</v>
+        <v>12.45</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>1.57</v>
+        <v>0.45</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>9.76</v>
+        <v>3.11</v>
       </c>
       <c r="J35" t="n">
-        <v>47.24</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>NVIDIA GTX 1080 Ti</t>
+          <t>NVIDIA GTX 1060 3GB</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>3.29</v>
+        <v>1.38</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>21.55</v>
+        <v>10.05</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>100.11</v>
+        <v>38.26</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>1.26</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>8.800000000000001</v>
+        <v>3.93</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>37.65</v>
+        <v>16.83</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>2.03</v>
+        <v>0.82</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>12.75</v>
+        <v>6.12</v>
       </c>
       <c r="J36" t="n">
-        <v>62.47</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>NVIDIA GTX 1650</t>
+          <t>NVIDIA GTX 1060 6GB</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>0.82</v>
+        <v>3.89</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>5.9</v>
+        <v>24.17</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>32.19</v>
+        <v>78.98999999999999</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>3.53</v>
+        <v>3.93</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>15.12</v>
+        <v>16.83</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>0.32</v>
+        <v>3.32</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>2.38</v>
+        <v>20.24</v>
       </c>
       <c r="J37" t="n">
-        <v>17.07</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>NVIDIA GTX 1660</t>
+          <t>NVIDIA GTX 1070</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>1.53</v>
+        <v>4.89</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>10.08</v>
+        <v>30.44</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>49.96</v>
+        <v>99.47</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>4.23</v>
+        <v>5.24</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>18.14</v>
+        <v>22.44</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>0.93</v>
+        <v>4.15</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>5.85</v>
+        <v>25.2</v>
       </c>
       <c r="J38" t="n">
-        <v>31.81</v>
+        <v>77.03</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>NVIDIA GTX 1660 Super</t>
+          <t>NVIDIA GTX 1070 Ti</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>1.99</v>
+        <v>5.03</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>13.04</v>
+        <v>32.05</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>61.14</v>
+        <v>105.08</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>0.67</v>
+        <v>0.84</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>20.16</v>
+        <v>25.25</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>1.32</v>
+        <v>4.18</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>8.34</v>
+        <v>26.15</v>
       </c>
       <c r="J39" t="n">
-        <v>40.98</v>
+        <v>79.84</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>NVIDIA GTX 1660 Ti</t>
+          <t>NVIDIA GTX 1080</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>2.08</v>
+        <v>5.99</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>13.57</v>
+        <v>37.28</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>63.86</v>
+        <v>121.83</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>0.57</v>
+        <v>0.84</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>4</v>
+        <v>5.9</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>17.4</v>
+        <v>25.25</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>1.51</v>
+        <v>5.15</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>9.58</v>
+        <v>31.38</v>
       </c>
       <c r="J40" t="n">
-        <v>46.46</v>
+        <v>96.58</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>NVIDIA GTX 750 Ti</t>
+          <t>NVIDIA GTX 1080 Ti</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>0.1</v>
+        <v>7.38</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>0.75</v>
+        <v>46.02</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>4.18</v>
+        <v>150.45</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>0.5</v>
+        <v>1.06</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>3.53</v>
+        <v>7.43</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>-2.77</v>
+        <v>31.79</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>38.59</v>
       </c>
       <c r="J41" t="n">
-        <v>-10.94</v>
+        <v>118.65</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NVIDIA GTX 960</t>
+          <t>NVIDIA GTX 1650</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>0.21</v>
+        <v>1.81</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>1.55</v>
+        <v>12.28</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>8.59</v>
+        <v>41.44</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>0.67</v>
+        <v>0.47</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>4.7</v>
+        <v>3.27</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>-3.16</v>
+        <v>14.02</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>9.01</v>
       </c>
       <c r="J42" t="n">
-        <v>-11.57</v>
+        <v>27.41</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>NVIDIA GTX 970</t>
+          <t>NVIDIA GTX 1660</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>0.3</v>
+        <v>4.05</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>2.19</v>
+        <v>25.19</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>12.53</v>
+        <v>82.31999999999999</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>1.01</v>
+        <v>0.31</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>7.06</v>
+        <v>2.18</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>30.24</v>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>-0.71</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>-4.86</v>
+        <v>9.35</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="J43" t="n">
-        <v>-17.71</v>
+        <v>72.97</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>NVIDIA GTX 980</t>
+          <t>NVIDIA GTX 1660 Super</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>1.38</v>
+        <v>5.01</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>8.98</v>
+        <v>31.22</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>41.35</v>
+        <v>102.06</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>1.48</v>
+        <v>0.44</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>10.35</v>
+        <v>3.06</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>44.35</v>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>-1.37</v>
+        <v>13.09</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>28.16</v>
       </c>
       <c r="J44" t="n">
-        <v>-3</v>
+        <v>88.97</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>NVIDIA GTX 980 Ti</t>
+          <t>NVIDIA GTX 1660 Ti</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>1.46</v>
+        <v>4.85</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>9.550000000000001</v>
+        <v>30.21</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>43.98</v>
+        <v>98.78</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>1.68</v>
+        <v>0.37</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>11.76</v>
+        <v>2.62</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>-0.22</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>-2.21</v>
+        <v>11.22</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>27.59</v>
       </c>
       <c r="J45" t="n">
-        <v>-6.42</v>
+        <v>87.55</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NVIDIA P102-100</t>
+          <t>NVIDIA GTX 960</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>3.23</v>
+        <v>0.51</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>21.05</v>
+        <v>3.6</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>97.12</v>
+        <v>13.32</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>1.28</v>
+        <v>0.62</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>8.94</v>
+        <v>4.37</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>38.31</v>
-      </c>
-      <c r="H46" s="1" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="I46" s="1" t="n">
-        <v>12.11</v>
+        <v>18.7</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>-0.77</v>
       </c>
       <c r="J46" t="n">
-        <v>58.81</v>
+        <v>-5.38</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>NVIDIA P104-100</t>
+          <t>NVIDIA GTX 970</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>2.64</v>
+        <v>1.01</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>17.21</v>
+        <v>7.35</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>79.33</v>
+        <v>28.02</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>6.35</v>
+        <v>6.55</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>27.24</v>
+        <v>28.05</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>1.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>10.86</v>
+        <v>0.8</v>
       </c>
       <c r="J47" t="n">
-        <v>52.1</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>NVIDIA P106-100</t>
+          <t>NVIDIA GTX 980</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>1.67</v>
+        <v>1.12</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>10.86</v>
+        <v>8.17</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>50.09</v>
+        <v>31.07</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>0.6</v>
+        <v>1.37</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>4.23</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>18.14</v>
-      </c>
-      <c r="H48" s="1" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="I48" s="1" t="n">
-        <v>6.63</v>
+        <v>41.14</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>-1.44</v>
       </c>
       <c r="J48" t="n">
-        <v>31.95</v>
+        <v>-10.07</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>NVIDIA RTX 2060</t>
+          <t>NVIDIA GTX 980 Ti</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>2.14</v>
+        <v>3.07</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>14.43</v>
+        <v>19.19</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>72.75</v>
+        <v>63.26</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>0.8</v>
+        <v>1.56</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>5.82</v>
+        <v>10.92</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>25.28</v>
+        <v>46.75</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>8.6</v>
+        <v>8.27</v>
       </c>
       <c r="J49" t="n">
-        <v>47.48</v>
+        <v>16.51</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>NVIDIA RTX 2060 Super</t>
+          <t>NVIDIA P102-100</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>2.87</v>
+        <v>7.69</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>18.73</v>
+        <v>47.9</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>90.93000000000001</v>
+        <v>156.58</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>0.87</v>
+        <v>1.19</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>6.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>25.84</v>
+        <v>35.53</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>12.63</v>
+        <v>39.6</v>
       </c>
       <c r="J50" t="n">
-        <v>65.09</v>
+        <v>121.05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>NVIDIA RTX 2070</t>
+          <t>NVIDIA P104-100</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>2.9</v>
+        <v>5.98</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>18.93</v>
+        <v>37.26</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>91.56999999999999</v>
+        <v>121.81</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F51" s="1" t="n">
-        <v>6.6</v>
+        <v>5.24</v>
       </c>
       <c r="G51" s="1" t="n">
-        <v>28.94</v>
+        <v>22.44</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>1.96</v>
+        <v>5.23</v>
       </c>
       <c r="I51" s="1" t="n">
-        <v>12.32</v>
+        <v>32.02</v>
       </c>
       <c r="J51" t="n">
-        <v>62.64</v>
+        <v>99.37</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>NVIDIA RTX 2070 Super</t>
+          <t>NVIDIA P106-100</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>2.91</v>
+        <v>3.97</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>19.45</v>
+        <v>24.72</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>97.97</v>
+        <v>80.79000000000001</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>1.1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>7.41</v>
+        <v>3.93</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>31.3</v>
+        <v>16.83</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>1.81</v>
+        <v>3.4</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>12.04</v>
+        <v>20.78</v>
       </c>
       <c r="J52" t="n">
-        <v>66.67</v>
+        <v>63.96</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>NVIDIA RTX 2080</t>
+          <t>NVIDIA Quadro GP100</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>3</v>
+        <v>6.46</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>20.52</v>
+        <v>40.29</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>104.05</v>
+        <v>131.69</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>1.12</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>8.06</v>
+        <v>6.55</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>34.74</v>
+        <v>28.05</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>1.88</v>
+        <v>5.53</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>12.46</v>
+        <v>33.73</v>
       </c>
       <c r="J53" t="n">
-        <v>69.31</v>
+        <v>103.64</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>NVIDIA RTX 2080 Super</t>
+          <t>NVIDIA Quadro P2200</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>2.92</v>
+        <v>3.23</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>19.79</v>
+        <v>20.14</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>100.33</v>
+        <v>65.84</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>1.43</v>
+        <v>0.41</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>10.3</v>
+        <v>2.84</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>44.43</v>
+        <v>12.16</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>1.48</v>
+        <v>2.83</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>9.49</v>
+        <v>17.3</v>
       </c>
       <c r="J54" t="n">
-        <v>55.9</v>
+        <v>53.69</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>NVIDIA RTX 2080 Ti</t>
+          <t>NVIDIA Quadro RTX 4000 8GB</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>4.13</v>
+        <v>5.98</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>28.69</v>
+        <v>37.26</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>146.03</v>
+        <v>121.81</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>1.5</v>
+        <v>0.52</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>10.45</v>
+        <v>3.63</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>44.62</v>
+        <v>15.52</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>2.63</v>
+        <v>5.46</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>18.24</v>
+        <v>33.64</v>
       </c>
       <c r="J55" t="n">
-        <v>101.41</v>
+        <v>106.29</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>NVIDIA RTX 3060 Ti</t>
+          <t>NVIDIA Quadro RTX 8000</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>4.11</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>26.77</v>
+        <v>57.41</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>123.45</v>
+        <v>187.66</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>1.21</v>
+        <v>1</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>8.470000000000001</v>
+        <v>6.99</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>36.29</v>
+        <v>29.92</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>2.9</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>18.31</v>
+        <v>50.42</v>
       </c>
       <c r="J56" t="n">
-        <v>87.16</v>
+        <v>157.74</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>NVIDIA RTX 3070</t>
+          <t>NVIDIA RTX 2060</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>4.11</v>
+        <v>5.17</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>26.8</v>
+        <v>32.26</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>124.52</v>
+        <v>105.63</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>1.08</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F57" s="1" t="n">
-        <v>7.53</v>
+        <v>3.93</v>
       </c>
       <c r="G57" s="1" t="n">
-        <v>32.26</v>
+        <v>16.83</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>3.04</v>
+        <v>4.61</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>19.28</v>
+        <v>28.32</v>
       </c>
       <c r="J57" t="n">
-        <v>92.26000000000001</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>NVIDIA RTX 3080</t>
+          <t>NVIDIA RTX 2060 Super</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>6.65</v>
+        <v>6.83</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>43.37</v>
+        <v>42.55</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>200.1</v>
+        <v>139.11</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>1.61</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F58" s="1" t="n">
-        <v>11.29</v>
+        <v>4.8</v>
       </c>
       <c r="G58" s="1" t="n">
-        <v>48.38</v>
+        <v>20.57</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>5.04</v>
+        <v>6.14</v>
       </c>
       <c r="I58" s="1" t="n">
-        <v>32.08</v>
+        <v>37.75</v>
       </c>
       <c r="J58" t="n">
-        <v>151.72</v>
+        <v>118.53</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>NVIDIA RTX 3090</t>
+          <t>NVIDIA RTX 2070</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>8.15</v>
+        <v>6.87</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>53.11</v>
+        <v>42.97</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>244.89</v>
+        <v>140.56</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>2.02</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F59" s="1" t="n">
-        <v>14.11</v>
+        <v>4.8</v>
       </c>
       <c r="G59" s="1" t="n">
-        <v>60.48</v>
+        <v>20.57</v>
       </c>
       <c r="H59" s="1" t="n">
-        <v>6.13</v>
+        <v>6.18</v>
       </c>
       <c r="I59" s="1" t="n">
-        <v>39</v>
+        <v>38.17</v>
       </c>
       <c r="J59" t="n">
-        <v>184.41</v>
+        <v>119.99</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>NVIDIA TITAN RTX</t>
+          <t>NVIDIA RTX 2070 Super</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>3.79</v>
+        <v>6.95</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>26.71</v>
+        <v>43.35</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>137.46</v>
+        <v>141.97</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>1.68</v>
+        <v>0.78</v>
       </c>
       <c r="F60" s="1" t="n">
-        <v>11.76</v>
+        <v>5.44</v>
       </c>
       <c r="G60" s="1" t="n">
-        <v>50.4</v>
+        <v>23.11</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>2.11</v>
+        <v>6.17</v>
       </c>
       <c r="I60" s="1" t="n">
-        <v>14.95</v>
+        <v>37.91</v>
       </c>
       <c r="J60" t="n">
-        <v>87.06</v>
+        <v>118.86</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>NVIDIA TITAN V</t>
+          <t>NVIDIA RTX 2080</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>5.31</v>
+        <v>6.97</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>34.61</v>
+        <v>43.46</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>159.52</v>
+        <v>144.1</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>1.08</v>
+        <v>0.67</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>7.53</v>
+        <v>4.73</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>32.26</v>
+        <v>20.8</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>4.24</v>
+        <v>6.29</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>27.08</v>
+        <v>38.74</v>
       </c>
       <c r="J61" t="n">
-        <v>127.26</v>
+        <v>123.31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>NVIDIA RTX 2080 Super</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>43.06</v>
+      </c>
+      <c r="D62" s="1" t="n">
+        <v>143.72</v>
+      </c>
+      <c r="E62" s="1" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="G62" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>36.82</v>
+      </c>
+      <c r="J62" t="n">
+        <v>111.72</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>NVIDIA RTX 2080 Ti</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>59.84</v>
+      </c>
+      <c r="D63" s="1" t="n">
+        <v>197.19</v>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="G63" s="1" t="n">
+        <v>38.93</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>50.06</v>
+      </c>
+      <c r="J63" t="n">
+        <v>158.25</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>NVIDIA RTX 3060</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>49.35</v>
+      </c>
+      <c r="D64" s="1" t="n">
+        <v>161.32</v>
+      </c>
+      <c r="E64" s="1" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="G64" s="1" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>44.33</v>
+      </c>
+      <c r="J64" t="n">
+        <v>139.81</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>NVIDIA RTX 3060 Ti</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>60.93</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>199.18</v>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>55.91</v>
+      </c>
+      <c r="J65" t="n">
+        <v>177.68</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>NVIDIA RTX 3070</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>60.99</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>199.38</v>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="G66" s="1" t="n">
+        <v>22.44</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>55.75</v>
+      </c>
+      <c r="J66" t="n">
+        <v>176.94</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>NVIDIA RTX 3080</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>96.72</v>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>316.09</v>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="G67" s="1" t="n">
+        <v>41.14</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>87.12</v>
+      </c>
+      <c r="J67" t="n">
+        <v>274.95</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>NVIDIA RTX 3090</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>120.77</v>
+      </c>
+      <c r="D68" s="1" t="n">
+        <v>394.98</v>
+      </c>
+      <c r="E68" s="1" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="G68" s="1" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="H68" s="1" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>108.32</v>
+      </c>
+      <c r="J68" t="n">
+        <v>341.68</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>NVIDIA TITAN RTX</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>66.43000000000001</v>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>217.35</v>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>46.75</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>55.51</v>
+      </c>
+      <c r="J69" t="n">
+        <v>170.59</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>NVIDIA TITAN V</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>78.76000000000001</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>257.45</v>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="G70" s="1" t="n">
+        <v>29.92</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>71.77</v>
+      </c>
+      <c r="J70" t="n">
+        <v>227.53</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>NVIDIA TITAN X</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>30.21</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>98.77</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="G71" s="1" t="n">
+        <v>43.01</v>
+      </c>
+      <c r="H71" s="1" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>20.17</v>
+      </c>
+      <c r="J71" t="n">
+        <v>55.76</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
           <t>NVIDIA TITAN XP</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="C62" t="n">
-        <v>20.17</v>
-      </c>
-      <c r="D62" t="n">
-        <v>94.27</v>
-      </c>
-      <c r="E62" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="F62" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="G62" t="n">
-        <v>48.38</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="I62" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="J62" t="n">
-        <v>45.89</v>
+      <c r="B72" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="C72" t="n">
+        <v>45.74</v>
+      </c>
+      <c r="D72" t="n">
+        <v>149.54</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F72" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="G72" t="n">
+        <v>44.88</v>
+      </c>
+      <c r="H72" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="I72" t="n">
+        <v>35.26</v>
+      </c>
+      <c r="J72" t="n">
+        <v>104.66</v>
       </c>
     </row>
   </sheetData>
